--- a/reports_pdf/brasil/risk-pt/Cases/29-06-2020_recife_report_EPG.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/29-06-2020_recife_report_EPG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2311"/>
+  <dimension ref="A1:D2421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41963,6 +41963,1986 @@
         <v>536.3894775244133</v>
       </c>
     </row>
+    <row r="2312">
+      <c r="A2312" s="1" t="n">
+        <v>2310</v>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>12/03/2020</t>
+        </is>
+      </c>
+      <c r="C2312" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" s="1" t="n">
+        <v>2311</v>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>13/03/2020</t>
+        </is>
+      </c>
+      <c r="C2313" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" s="1" t="n">
+        <v>2312</v>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>14/03/2020</t>
+        </is>
+      </c>
+      <c r="C2314" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" s="1" t="n">
+        <v>2313</v>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>15/03/2020</t>
+        </is>
+      </c>
+      <c r="C2315" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" s="1" t="n">
+        <v>2314</v>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>16/03/2020</t>
+        </is>
+      </c>
+      <c r="C2316" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" s="1" t="n">
+        <v>2315</v>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>17/03/2020</t>
+        </is>
+      </c>
+      <c r="C2317" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" s="1" t="n">
+        <v>2316</v>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>18/03/2020</t>
+        </is>
+      </c>
+      <c r="C2318" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" s="1" t="n">
+        <v>2317</v>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>19/03/2020</t>
+        </is>
+      </c>
+      <c r="C2319" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" s="1" t="n">
+        <v>2318</v>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>20/03/2020</t>
+        </is>
+      </c>
+      <c r="C2320" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" s="1" t="n">
+        <v>2319</v>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>21/03/2020</t>
+        </is>
+      </c>
+      <c r="C2321" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" s="1" t="n">
+        <v>2320</v>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>22/03/2020</t>
+        </is>
+      </c>
+      <c r="C2322" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" s="1" t="n">
+        <v>2321</v>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>23/03/2020</t>
+        </is>
+      </c>
+      <c r="C2323" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" s="1" t="n">
+        <v>2322</v>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>24/03/2020</t>
+        </is>
+      </c>
+      <c r="C2324" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" s="1" t="n">
+        <v>2323</v>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>25/03/2020</t>
+        </is>
+      </c>
+      <c r="C2325" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" s="1" t="n">
+        <v>2324</v>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C2326" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" s="1" t="n">
+        <v>2325</v>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" s="1" t="n">
+        <v>2326</v>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>28/03/2020</t>
+        </is>
+      </c>
+      <c r="C2328" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" s="1" t="n">
+        <v>2327</v>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>29/03/2020</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" s="1" t="n">
+        <v>2328</v>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C2330" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" s="1" t="n">
+        <v>2329</v>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C2331" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" s="1" t="n">
+        <v>2330</v>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="C2332" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" s="1" t="n">
+        <v>2331</v>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>02/04/2020</t>
+        </is>
+      </c>
+      <c r="C2333" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" s="1" t="n">
+        <v>2332</v>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>03/04/2020</t>
+        </is>
+      </c>
+      <c r="C2334" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" s="1" t="n">
+        <v>2333</v>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>04/04/2020</t>
+        </is>
+      </c>
+      <c r="C2335" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" s="1" t="n">
+        <v>2334</v>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>05/04/2020</t>
+        </is>
+      </c>
+      <c r="C2336" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" s="1" t="n">
+        <v>2335</v>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>06/04/2020</t>
+        </is>
+      </c>
+      <c r="C2337" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" s="1" t="n">
+        <v>2336</v>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>07/04/2020</t>
+        </is>
+      </c>
+      <c r="C2338" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" s="1" t="n">
+        <v>2337</v>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>08/04/2020</t>
+        </is>
+      </c>
+      <c r="C2339" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" s="1" t="n">
+        <v>2338</v>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>09/04/2020</t>
+        </is>
+      </c>
+      <c r="C2340" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" s="1" t="n">
+        <v>2339</v>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>10/04/2020</t>
+        </is>
+      </c>
+      <c r="C2341" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" s="1" t="n">
+        <v>2340</v>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>11/04/2020</t>
+        </is>
+      </c>
+      <c r="C2342" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2342" t="n">
+        <v>0.3159228263719738</v>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" s="1" t="n">
+        <v>2341</v>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>12/04/2020</t>
+        </is>
+      </c>
+      <c r="C2343" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2343" t="n">
+        <v>0.6318456527439477</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" s="1" t="n">
+        <v>2342</v>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>13/04/2020</t>
+        </is>
+      </c>
+      <c r="C2344" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2344" t="n">
+        <v>0.9477684791159215</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" s="1" t="n">
+        <v>2343</v>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>14/04/2020</t>
+        </is>
+      </c>
+      <c r="C2345" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2345" t="n">
+        <v>0.9477684791159215</v>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" s="1" t="n">
+        <v>2344</v>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>15/04/2020</t>
+        </is>
+      </c>
+      <c r="C2346" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2346" t="n">
+        <v>0.9477684791159215</v>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" s="1" t="n">
+        <v>2345</v>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>16/04/2020</t>
+        </is>
+      </c>
+      <c r="C2347" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2347" t="n">
+        <v>0.9477684791159215</v>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" s="1" t="n">
+        <v>2346</v>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>17/04/2020</t>
+        </is>
+      </c>
+      <c r="C2348" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2348" t="n">
+        <v>0.9477684791159215</v>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" s="1" t="n">
+        <v>2347</v>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>18/04/2020</t>
+        </is>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2349" t="n">
+        <v>0.6318456527439477</v>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" s="1" t="n">
+        <v>2348</v>
+      </c>
+      <c r="B2350" t="inlineStr">
+        <is>
+          <t>19/04/2020</t>
+        </is>
+      </c>
+      <c r="C2350" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2350" t="n">
+        <v>0.3159228263719738</v>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" s="1" t="n">
+        <v>2349</v>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>20/04/2020</t>
+        </is>
+      </c>
+      <c r="C2351" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" s="1" t="n">
+        <v>2350</v>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>21/04/2020</t>
+        </is>
+      </c>
+      <c r="C2352" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" s="1" t="n">
+        <v>2351</v>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>22/04/2020</t>
+        </is>
+      </c>
+      <c r="C2353" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" s="1" t="n">
+        <v>2352</v>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>23/04/2020</t>
+        </is>
+      </c>
+      <c r="C2354" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" s="1" t="n">
+        <v>2353</v>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>24/04/2020</t>
+        </is>
+      </c>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" s="1" t="n">
+        <v>2354</v>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>25/04/2020</t>
+        </is>
+      </c>
+      <c r="C2356" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" s="1" t="n">
+        <v>2355</v>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>26/04/2020</t>
+        </is>
+      </c>
+      <c r="C2357" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" s="1" t="n">
+        <v>2356</v>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>27/04/2020</t>
+        </is>
+      </c>
+      <c r="C2358" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" s="1" t="n">
+        <v>2357</v>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>28/04/2020</t>
+        </is>
+      </c>
+      <c r="C2359" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" s="1" t="n">
+        <v>2358</v>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>29/04/2020</t>
+        </is>
+      </c>
+      <c r="C2360" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" s="1" t="n">
+        <v>2359</v>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>30/04/2020</t>
+        </is>
+      </c>
+      <c r="C2361" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" s="1" t="n">
+        <v>2360</v>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>01/05/2020</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" s="1" t="n">
+        <v>2361</v>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>02/05/2020</t>
+        </is>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" s="1" t="n">
+        <v>2362</v>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>03/05/2020</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" s="1" t="n">
+        <v>2363</v>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>04/05/2020</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" s="1" t="n">
+        <v>2364</v>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>05/05/2020</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" s="1" t="n">
+        <v>2365</v>
+      </c>
+      <c r="B2367" t="inlineStr">
+        <is>
+          <t>06/05/2020</t>
+        </is>
+      </c>
+      <c r="C2367" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368" s="1" t="n">
+        <v>2366</v>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>07/05/2020</t>
+        </is>
+      </c>
+      <c r="C2368" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" s="1" t="n">
+        <v>2367</v>
+      </c>
+      <c r="B2369" t="inlineStr">
+        <is>
+          <t>08/05/2020</t>
+        </is>
+      </c>
+      <c r="C2369" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="A2370" s="1" t="n">
+        <v>2368</v>
+      </c>
+      <c r="B2370" t="inlineStr">
+        <is>
+          <t>09/05/2020</t>
+        </is>
+      </c>
+      <c r="C2370" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" s="1" t="n">
+        <v>2369</v>
+      </c>
+      <c r="B2371" t="inlineStr">
+        <is>
+          <t>10/05/2020</t>
+        </is>
+      </c>
+      <c r="C2371" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2371" t="n">
+        <v>0.3159228263719738</v>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" s="1" t="n">
+        <v>2370</v>
+      </c>
+      <c r="B2372" t="inlineStr">
+        <is>
+          <t>11/05/2020</t>
+        </is>
+      </c>
+      <c r="C2372" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2372" t="n">
+        <v>0.6318456527439477</v>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" s="1" t="n">
+        <v>2371</v>
+      </c>
+      <c r="B2373" t="inlineStr">
+        <is>
+          <t>12/05/2020</t>
+        </is>
+      </c>
+      <c r="C2373" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2373" t="n">
+        <v>0.9477684791159215</v>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" s="1" t="n">
+        <v>2372</v>
+      </c>
+      <c r="B2374" t="inlineStr">
+        <is>
+          <t>13/05/2020</t>
+        </is>
+      </c>
+      <c r="C2374" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2374" t="n">
+        <v>0.9477684791159215</v>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" s="1" t="n">
+        <v>2373</v>
+      </c>
+      <c r="B2375" t="inlineStr">
+        <is>
+          <t>14/05/2020</t>
+        </is>
+      </c>
+      <c r="C2375" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2375" t="n">
+        <v>0.9477684791159215</v>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" s="1" t="n">
+        <v>2374</v>
+      </c>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>15/05/2020</t>
+        </is>
+      </c>
+      <c r="C2376" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2376" t="n">
+        <v>0.9477684791159215</v>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" s="1" t="n">
+        <v>2375</v>
+      </c>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>16/05/2020</t>
+        </is>
+      </c>
+      <c r="C2377" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2377" t="n">
+        <v>0.9477684791159215</v>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" s="1" t="n">
+        <v>2376</v>
+      </c>
+      <c r="B2378" t="inlineStr">
+        <is>
+          <t>17/05/2020</t>
+        </is>
+      </c>
+      <c r="C2378" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2378" t="n">
+        <v>0.6318456527439477</v>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" s="1" t="n">
+        <v>2377</v>
+      </c>
+      <c r="B2379" t="inlineStr">
+        <is>
+          <t>18/05/2020</t>
+        </is>
+      </c>
+      <c r="C2379" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2379" t="n">
+        <v>0.3159228263719738</v>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" s="1" t="n">
+        <v>2378</v>
+      </c>
+      <c r="B2380" t="inlineStr">
+        <is>
+          <t>19/05/2020</t>
+        </is>
+      </c>
+      <c r="C2380" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" s="1" t="n">
+        <v>2379</v>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>20/05/2020</t>
+        </is>
+      </c>
+      <c r="C2381" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2381" t="n">
+        <v>3.791073916463686</v>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" s="1" t="n">
+        <v>2380</v>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>21/05/2020</t>
+        </is>
+      </c>
+      <c r="C2382" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2382" t="n">
+        <v>11.05729892301908</v>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" s="1" t="n">
+        <v>2381</v>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>22/05/2020</t>
+        </is>
+      </c>
+      <c r="C2383" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2383" t="n">
+        <v>17.37575545045856</v>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" s="1" t="n">
+        <v>2382</v>
+      </c>
+      <c r="B2384" t="inlineStr">
+        <is>
+          <t>23/05/2020</t>
+        </is>
+      </c>
+      <c r="C2384" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2384" t="n">
+        <v>30.96043698445344</v>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" s="1" t="n">
+        <v>2383</v>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>24/05/2020</t>
+        </is>
+      </c>
+      <c r="C2385" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2385" t="n">
+        <v>30.32859133170949</v>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" s="1" t="n">
+        <v>2384</v>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>25/05/2020</t>
+        </is>
+      </c>
+      <c r="C2386" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2386" t="n">
+        <v>31.59228263719738</v>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" s="1" t="n">
+        <v>2385</v>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>26/05/2020</t>
+        </is>
+      </c>
+      <c r="C2387" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2387" t="n">
+        <v>31.59228263719738</v>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" s="1" t="n">
+        <v>2386</v>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>27/05/2020</t>
+        </is>
+      </c>
+      <c r="C2388" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2388" t="n">
+        <v>25.90567176250185</v>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" s="1" t="n">
+        <v>2387</v>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>28/05/2020</t>
+        </is>
+      </c>
+      <c r="C2389" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2389" t="n">
+        <v>26.11628698008317</v>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" s="1" t="n">
+        <v>2388</v>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>29/05/2020</t>
+        </is>
+      </c>
+      <c r="C2390" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2390" t="n">
+        <v>22.27255925922416</v>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" s="1" t="n">
+        <v>2389</v>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>30/05/2020</t>
+        </is>
+      </c>
+      <c r="C2391" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2391" t="n">
+        <v>29.69674567896554</v>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" s="1" t="n">
+        <v>2390</v>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>31/05/2020</t>
+        </is>
+      </c>
+      <c r="C2392" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2392" t="n">
+        <v>37.27889351189291</v>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" s="1" t="n">
+        <v>2391</v>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>01/06/2020</t>
+        </is>
+      </c>
+      <c r="C2393" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2393" t="n">
+        <v>46.12473265030818</v>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" s="1" t="n">
+        <v>2392</v>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>02/06/2020</t>
+        </is>
+      </c>
+      <c r="C2394" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2394" t="n">
+        <v>46.12473265030818</v>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" s="1" t="n">
+        <v>2393</v>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>03/06/2020</t>
+        </is>
+      </c>
+      <c r="C2395" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2395" t="n">
+        <v>44.59777232284364</v>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396" s="1" t="n">
+        <v>2394</v>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>04/06/2020</t>
+        </is>
+      </c>
+      <c r="C2396" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2396" t="n">
+        <v>44.01858047449502</v>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" s="1" t="n">
+        <v>2395</v>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>05/06/2020</t>
+        </is>
+      </c>
+      <c r="C2397" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2397" t="n">
+        <v>72.05673131500771</v>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" s="1" t="n">
+        <v>2396</v>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>06/06/2020</t>
+        </is>
+      </c>
+      <c r="C2398" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2398" t="n">
+        <v>72.05673131500771</v>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" s="1" t="n">
+        <v>2397</v>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t>07/06/2020</t>
+        </is>
+      </c>
+      <c r="C2399" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2399" t="n">
+        <v>76.29536256883168</v>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" s="1" t="n">
+        <v>2398</v>
+      </c>
+      <c r="B2400" t="inlineStr">
+        <is>
+          <t>08/06/2020</t>
+        </is>
+      </c>
+      <c r="C2400" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2400" t="n">
+        <v>67.76544625678838</v>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" s="1" t="n">
+        <v>2399</v>
+      </c>
+      <c r="B2401" t="inlineStr">
+        <is>
+          <t>09/06/2020</t>
+        </is>
+      </c>
+      <c r="C2401" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2401" t="n">
+        <v>75.53188240509941</v>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402" s="1" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B2402" t="inlineStr">
+        <is>
+          <t>10/06/2020</t>
+        </is>
+      </c>
+      <c r="C2402" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2402" t="n">
+        <v>81.27114708419028</v>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403" s="1" t="n">
+        <v>2401</v>
+      </c>
+      <c r="B2403" t="inlineStr">
+        <is>
+          <t>11/06/2020</t>
+        </is>
+      </c>
+      <c r="C2403" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2403" t="n">
+        <v>81.63972371495757</v>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" s="1" t="n">
+        <v>2402</v>
+      </c>
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t>12/06/2020</t>
+        </is>
+      </c>
+      <c r="C2404" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2404" t="n">
+        <v>96.19850063026604</v>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" s="1" t="n">
+        <v>2403</v>
+      </c>
+      <c r="B2405" t="inlineStr">
+        <is>
+          <t>13/06/2020</t>
+        </is>
+      </c>
+      <c r="C2405" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2405" t="n">
+        <v>91.70537598853132</v>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" s="1" t="n">
+        <v>2404</v>
+      </c>
+      <c r="B2406" t="inlineStr">
+        <is>
+          <t>14/06/2020</t>
+        </is>
+      </c>
+      <c r="C2406" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2406" t="n">
+        <v>91.7053759885313</v>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" s="1" t="n">
+        <v>2405</v>
+      </c>
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>15/06/2020</t>
+        </is>
+      </c>
+      <c r="C2407" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2407" t="n">
+        <v>88.52859645667978</v>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" s="1" t="n">
+        <v>2406</v>
+      </c>
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>16/06/2020</t>
+        </is>
+      </c>
+      <c r="C2408" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2408" t="n">
+        <v>84.69539949669982</v>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" s="1" t="n">
+        <v>2407</v>
+      </c>
+      <c r="B2409" t="inlineStr">
+        <is>
+          <t>17/06/2020</t>
+        </is>
+      </c>
+      <c r="C2409" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2409" t="n">
+        <v>84.19758170968944</v>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" s="1" t="n">
+        <v>2408</v>
+      </c>
+      <c r="B2410" t="inlineStr">
+        <is>
+          <t>18/06/2020</t>
+        </is>
+      </c>
+      <c r="C2410" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2410" t="n">
+        <v>78.15101028130948</v>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" s="1" t="n">
+        <v>2409</v>
+      </c>
+      <c r="B2411" t="inlineStr">
+        <is>
+          <t>19/06/2020</t>
+        </is>
+      </c>
+      <c r="C2411" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2411" t="n">
+        <v>53.55897115997958</v>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" s="1" t="n">
+        <v>2410</v>
+      </c>
+      <c r="B2412" t="inlineStr">
+        <is>
+          <t>20/06/2020</t>
+        </is>
+      </c>
+      <c r="C2412" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2412" t="n">
+        <v>75.73771091319026</v>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" s="1" t="n">
+        <v>2411</v>
+      </c>
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>21/06/2020</t>
+        </is>
+      </c>
+      <c r="C2413" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2413" t="n">
+        <v>78.76721934971786</v>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" s="1" t="n">
+        <v>2412</v>
+      </c>
+      <c r="B2414" t="inlineStr">
+        <is>
+          <t>22/06/2020</t>
+        </is>
+      </c>
+      <c r="C2414" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2414" t="n">
+        <v>107.3864767223753</v>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" s="1" t="n">
+        <v>2413</v>
+      </c>
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>23/06/2020</t>
+        </is>
+      </c>
+      <c r="C2415" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2415" t="n">
+        <v>122.7403260840533</v>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" s="1" t="n">
+        <v>2414</v>
+      </c>
+      <c r="B2416" t="inlineStr">
+        <is>
+          <t>24/06/2020</t>
+        </is>
+      </c>
+      <c r="C2416" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2416" t="n">
+        <v>128.2751982679004</v>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417" s="1" t="n">
+        <v>2415</v>
+      </c>
+      <c r="B2417" t="inlineStr">
+        <is>
+          <t>25/06/2020</t>
+        </is>
+      </c>
+      <c r="C2417" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2417" t="n">
+        <v>175.0607361633699</v>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="A2418" s="1" t="n">
+        <v>2416</v>
+      </c>
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>26/06/2020</t>
+        </is>
+      </c>
+      <c r="C2418" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2418" t="n">
+        <v>538.6352555131166</v>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419" s="1" t="n">
+        <v>2417</v>
+      </c>
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>27/06/2020</t>
+        </is>
+      </c>
+      <c r="C2419" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2419" t="n">
+        <v>687.8956275227754</v>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" s="1" t="n">
+        <v>2418</v>
+      </c>
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>28/06/2020</t>
+        </is>
+      </c>
+      <c r="C2420" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2420" t="n">
+        <v>700.8747903062239</v>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" s="1" t="n">
+        <v>2419</v>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>29/06/2020</t>
+        </is>
+      </c>
+      <c r="C2421" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="D2421" t="n">
+        <v>705.6531230551001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
